--- a/formula subir servicos.xlsx
+++ b/formula subir servicos.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.fraga\Desktop\ADS\Códigos Cosampa\Gerar Pdf Auditoria\GerarPdfAuditorias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD386ACB-BBF8-47B2-B5D8-6133F5F19294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AD4F87-CC4C-4729-A0B6-38F1CB8DC5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consulta_servicos_BRUNO_20-09-2" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'consulta_servicos_BRUNO_20-09-2'!$A$1:$BU$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$F$1:$L$149</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="185">
   <si>
     <t>num_servico</t>
   </si>
@@ -545,9 +562,6 @@
     <t>VIUV05 - VISTORIA IMPRODUTIVA</t>
   </si>
   <si>
-    <t>Limoeiro do norte</t>
-  </si>
-  <si>
     <t>;</t>
   </si>
   <si>
@@ -561,12 +575,33 @@
   </si>
   <si>
     <t>SOB</t>
+  </si>
+  <si>
+    <t>Icapui</t>
+  </si>
+  <si>
+    <t>Jaguaruana</t>
+  </si>
+  <si>
+    <t>Alto.Santo</t>
+  </si>
+  <si>
+    <t>Limoeiro.do.Norte</t>
+  </si>
+  <si>
+    <t>Morada.Nova</t>
+  </si>
+  <si>
+    <t>SÃO.JOÃO.JAGUARIBE</t>
+  </si>
+  <si>
+    <t>Tabuleiro.do.Norte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1107,6 +1142,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1">
+            <v>73685274</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>73695909</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>73728526</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>73767507</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ordens nok.xlsx</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1403,7 +1480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BU20"/>
   <sheetViews>
@@ -4532,7 +4609,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BU20">
+  <autoFilter ref="A1:BU20" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="6">
       <filters>
         <filter val="Concluido"/>
@@ -4544,11 +4621,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="F1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4564,297 +4642,3734 @@
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I1" t="s">
         <v>72</v>
       </c>
       <c r="J1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" t="s">
         <v>176</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>177</v>
       </c>
-      <c r="L1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="7:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F2" t="e">
+        <f>VLOOKUP(J2,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G13" si="0">_xlfn.CONCAT(I2,H2,J2,H2,K2,H2,L2)</f>
-        <v>26612408;73566915;Limoeiro do norte;185279124</v>
+        <v>26892764;73750914;Alto.Santo;187299451</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I2">
-        <v>26612408</v>
+        <v>26892764</v>
       </c>
       <c r="J2">
-        <v>73566915</v>
+        <v>73750914</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L2">
-        <v>185279124</v>
-      </c>
-    </row>
-    <row r="3" spans="7:12" x14ac:dyDescent="0.25">
+        <v>187299451</v>
+      </c>
+    </row>
+    <row r="3" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3" t="e">
+        <f>VLOOKUP(J3,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>26559925;73529151;Limoeiro do norte;184921912</v>
+        <v>26908756;73760609;Alto.Santo;187092027</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I3">
-        <v>26559925</v>
+        <v>26908756</v>
       </c>
       <c r="J3">
-        <v>73529151</v>
+        <v>73760609</v>
       </c>
       <c r="K3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L3">
-        <v>184921912</v>
-      </c>
-    </row>
-    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
+        <v>187092027</v>
+      </c>
+    </row>
+    <row r="4" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F4" t="e">
+        <f>VLOOKUP(J4,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>26325709;73359725;Limoeiro do norte;184789308</v>
+        <v>26909051;73760677;Alto.Santo;187091896</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I4">
-        <v>26325709</v>
+        <v>26909051</v>
       </c>
       <c r="J4">
-        <v>73359725</v>
+        <v>73760677</v>
       </c>
       <c r="K4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L4">
-        <v>184789308</v>
-      </c>
-    </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
+        <v>187091896</v>
+      </c>
+    </row>
+    <row r="5" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="e">
+        <f>VLOOKUP(J5,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>26444474;73447293;Limoeiro do norte;184126030</v>
+        <v>26893047;73750910;Alto.Santo;186954973</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I5">
-        <v>26444474</v>
+        <v>26893047</v>
       </c>
       <c r="J5">
-        <v>73447293</v>
+        <v>73750910</v>
       </c>
       <c r="K5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L5">
-        <v>184126030</v>
-      </c>
-    </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
+        <v>186954973</v>
+      </c>
+    </row>
+    <row r="6" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F6" t="e">
+        <f>VLOOKUP(J6,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>26440791;73443534;Limoeiro do norte;184125569</v>
+        <v>26873180;73740564;Alto.Santo;186954970</v>
       </c>
       <c r="H6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I6">
-        <v>26440791</v>
+        <v>26873180</v>
       </c>
       <c r="J6">
-        <v>73443534</v>
+        <v>73740564</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L6">
-        <v>184125569</v>
-      </c>
-    </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
+        <v>186954970</v>
+      </c>
+    </row>
+    <row r="7" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F7" t="e">
+        <f>VLOOKUP(J7,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>26322004;73340798;Limoeiro do norte;184125543</v>
+        <v>26870350;73737919;Alto.Santo;186827510</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I7">
-        <v>26322004</v>
+        <v>26870350</v>
       </c>
       <c r="J7">
-        <v>73340798</v>
+        <v>73737919</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L7">
-        <v>184125543</v>
-      </c>
-    </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+        <v>186827510</v>
+      </c>
+    </row>
+    <row r="8" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F8" t="e">
+        <f>VLOOKUP(J8,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>26188322;73258949;Limoeiro do norte;182492543</v>
+        <v>26868625;73735877;Alto.Santo;186827509</v>
       </c>
       <c r="H8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I8">
-        <v>26188322</v>
+        <v>26868625</v>
       </c>
       <c r="J8">
-        <v>73258949</v>
+        <v>73735877</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L8">
-        <v>182492543</v>
-      </c>
-    </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+        <v>186827509</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F9" t="e">
+        <f>VLOOKUP(J9,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>26179361;73027195;Limoeiro do norte;182345962</v>
+        <v>26851427;73726540;Alto.Santo;186827507</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I9">
-        <v>26179361</v>
+        <v>26851427</v>
       </c>
       <c r="J9">
-        <v>73027195</v>
+        <v>73726540</v>
       </c>
       <c r="K9" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L9">
-        <v>182345962</v>
-      </c>
-    </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+        <v>186827507</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F10" t="e">
+        <f>VLOOKUP(J10,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>26156373;73239111;Limoeiro do norte;182190914</v>
+        <v>26845077;73720732;Alto.Santo;186721420</v>
       </c>
       <c r="H10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I10">
-        <v>26156373</v>
+        <v>26845077</v>
       </c>
       <c r="J10">
-        <v>73239111</v>
+        <v>73720732</v>
       </c>
       <c r="K10" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L10">
-        <v>182190914</v>
-      </c>
-    </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+        <v>186721420</v>
+      </c>
+    </row>
+    <row r="11" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F11" t="e">
+        <f>VLOOKUP(J11,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>26049284;73027195;Limoeiro do norte;181522163</v>
+        <v>26835963;73715843;Alto.Santo;186721418</v>
       </c>
       <c r="H11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I11">
-        <v>26049284</v>
+        <v>26835963</v>
       </c>
       <c r="J11">
-        <v>73027195</v>
+        <v>73715843</v>
       </c>
       <c r="K11" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L11">
-        <v>181522163</v>
-      </c>
-    </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+        <v>186721418</v>
+      </c>
+    </row>
+    <row r="12" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F12" t="e">
+        <f>VLOOKUP(J12,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>26031983;73159405;Limoeiro do norte;181364930</v>
+        <v>26772311;73669439;Alto.Santo;186568533</v>
       </c>
       <c r="H12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I12">
-        <v>26031983</v>
+        <v>26772311</v>
       </c>
       <c r="J12">
-        <v>73159405</v>
+        <v>73669439</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L12">
-        <v>181364930</v>
-      </c>
-    </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
+        <v>186568533</v>
+      </c>
+    </row>
+    <row r="13" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F13" t="e">
+        <f>VLOOKUP(J13,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>26004507;73142754;Limoeiro do norte;181211146</v>
+        <v>26804204;73696291;Alto.Santo;186460374</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I13">
-        <v>26004507</v>
+        <v>26804204</v>
       </c>
       <c r="J13">
-        <v>73142754</v>
+        <v>73696291</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L13">
-        <v>181211146</v>
-      </c>
-    </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
+        <v>186460374</v>
+      </c>
+    </row>
+    <row r="14" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F14" t="e">
+        <f>VLOOKUP(J14,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G14" t="str">
         <f>_xlfn.CONCAT(I14,H14,J14,H14,K14,H14,L14)</f>
-        <v>25819388;73027195;Limoeiro do norte;180040182</v>
+        <v>26802887;73458840;Alto.Santo;186460367</v>
       </c>
       <c r="H14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I14">
-        <v>25819388</v>
+        <v>26802887</v>
       </c>
       <c r="J14">
-        <v>73027195</v>
+        <v>73458840</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L14">
-        <v>180040182</v>
+        <v>186460367</v>
+      </c>
+    </row>
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>VLOOKUP(J15,[1]Sheet!$A:$A,1,0)</f>
+        <v>73685274</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ref="G15" si="1">_xlfn.CONCAT(I15,H15,J15,H15,K15,H15,L15)</f>
+        <v>26794321;73685274;Icapui;186329343</v>
+      </c>
+      <c r="H15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15">
+        <v>26794321</v>
+      </c>
+      <c r="J15">
+        <v>73685274</v>
+      </c>
+      <c r="K15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15">
+        <v>186329343</v>
+      </c>
+    </row>
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f>VLOOKUP(J16,[1]Sheet!$A:$A,1,0)</f>
+        <v>73728526</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ref="G16:G17" si="2">_xlfn.CONCAT(I16,H16,J16,H16,K16,H16,L16)</f>
+        <v>26859229;73728526;Jaguaruana;186827730</v>
+      </c>
+      <c r="H16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16">
+        <v>26859229</v>
+      </c>
+      <c r="J16">
+        <v>73728526</v>
+      </c>
+      <c r="K16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16">
+        <v>186827730</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F17" t="e">
+        <f>VLOOKUP(J17,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>26977754;73803780;Limoeiro.do.Norte;187433437</v>
+      </c>
+      <c r="H17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17">
+        <v>26977754</v>
+      </c>
+      <c r="J17">
+        <v>73803780</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17">
+        <v>187433437</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F18" t="e">
+        <f>VLOOKUP(J18,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" ref="G18:G81" si="3">_xlfn.CONCAT(I18,H18,J18,H18,K18,H18,L18)</f>
+        <v>26978304;73804385;Limoeiro.do.Norte;187433234</v>
+      </c>
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18">
+        <v>26978304</v>
+      </c>
+      <c r="J18">
+        <v>73804385</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18">
+        <v>187433234</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F19" t="e">
+        <f>VLOOKUP(J19,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>26986927;73811887;Limoeiro.do.Norte;187433096</v>
+      </c>
+      <c r="H19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19">
+        <v>26986927</v>
+      </c>
+      <c r="J19">
+        <v>73811887</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19">
+        <v>187433096</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F20" t="e">
+        <f>VLOOKUP(J20,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>26979263;73805510;Limoeiro.do.Norte;187433084</v>
+      </c>
+      <c r="H20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20">
+        <v>26979263</v>
+      </c>
+      <c r="J20">
+        <v>73805510</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20">
+        <v>187433084</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F21" t="e">
+        <f>VLOOKUP(J21,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>26979710;73806445;Limoeiro.do.Norte;187433008</v>
+      </c>
+      <c r="H21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21">
+        <v>26979710</v>
+      </c>
+      <c r="J21">
+        <v>73806445</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21">
+        <v>187433008</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F22" t="e">
+        <f>VLOOKUP(J22,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>26976004;73803233;Limoeiro.do.Norte;187433007</v>
+      </c>
+      <c r="H22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22">
+        <v>26976004</v>
+      </c>
+      <c r="J22">
+        <v>73803233</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22">
+        <v>187433007</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F23" t="e">
+        <f>VLOOKUP(J23,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>26940896;73777071;Limoeiro.do.Norte;187300057</v>
+      </c>
+      <c r="H23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23">
+        <v>26940896</v>
+      </c>
+      <c r="J23">
+        <v>73777071</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23">
+        <v>187300057</v>
+      </c>
+    </row>
+    <row r="24" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F24" t="e">
+        <f>VLOOKUP(J24,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>26921767;73765039;Limoeiro.do.Norte;187204435</v>
+      </c>
+      <c r="H24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24">
+        <v>26921767</v>
+      </c>
+      <c r="J24">
+        <v>73765039</v>
+      </c>
+      <c r="K24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24">
+        <v>187204435</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F25" t="e">
+        <f>VLOOKUP(J25,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>26888730;73749542;Limoeiro.do.Norte;187092289</v>
+      </c>
+      <c r="H25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25">
+        <v>26888730</v>
+      </c>
+      <c r="J25">
+        <v>73749542</v>
+      </c>
+      <c r="K25" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25">
+        <v>187092289</v>
+      </c>
+    </row>
+    <row r="26" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F26" t="e">
+        <f>VLOOKUP(J26,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>26903732;73757493;Limoeiro.do.Norte;187092285</v>
+      </c>
+      <c r="H26" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26">
+        <v>26903732</v>
+      </c>
+      <c r="J26">
+        <v>73757493</v>
+      </c>
+      <c r="K26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26">
+        <v>187092285</v>
+      </c>
+    </row>
+    <row r="27" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F27" t="e">
+        <f>VLOOKUP(J27,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>26927921;73768676;Limoeiro.do.Norte;187092236</v>
+      </c>
+      <c r="H27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27">
+        <v>26927921</v>
+      </c>
+      <c r="J27">
+        <v>73768676</v>
+      </c>
+      <c r="K27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27">
+        <v>187092236</v>
+      </c>
+    </row>
+    <row r="28" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F28" t="e">
+        <f>VLOOKUP(J28,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>26923751;73767025;Limoeiro.do.Norte;187092118</v>
+      </c>
+      <c r="H28" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28">
+        <v>26923751</v>
+      </c>
+      <c r="J28">
+        <v>73767025</v>
+      </c>
+      <c r="K28" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28">
+        <v>187092118</v>
+      </c>
+    </row>
+    <row r="29" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F29" t="e">
+        <f>VLOOKUP(J29,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>26876729;73743141;Limoeiro.do.Norte;186955364</v>
+      </c>
+      <c r="H29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29">
+        <v>26876729</v>
+      </c>
+      <c r="J29">
+        <v>73743141</v>
+      </c>
+      <c r="K29" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29">
+        <v>186955364</v>
+      </c>
+    </row>
+    <row r="30" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F30" t="e">
+        <f>VLOOKUP(J30,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>26871796;73739301;Limoeiro.do.Norte;186955340</v>
+      </c>
+      <c r="H30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30">
+        <v>26871796</v>
+      </c>
+      <c r="J30">
+        <v>73739301</v>
+      </c>
+      <c r="K30" t="s">
+        <v>181</v>
+      </c>
+      <c r="L30">
+        <v>186955340</v>
+      </c>
+    </row>
+    <row r="31" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F31" t="e">
+        <f>VLOOKUP(J31,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>26871656;73739218;Limoeiro.do.Norte;186827966</v>
+      </c>
+      <c r="H31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31">
+        <v>26871656</v>
+      </c>
+      <c r="J31">
+        <v>73739218</v>
+      </c>
+      <c r="K31" t="s">
+        <v>181</v>
+      </c>
+      <c r="L31">
+        <v>186827966</v>
+      </c>
+    </row>
+    <row r="32" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F32" t="e">
+        <f>VLOOKUP(J32,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>26879411;73744846;Limoeiro.do.Norte;186827926</v>
+      </c>
+      <c r="H32" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32">
+        <v>26879411</v>
+      </c>
+      <c r="J32">
+        <v>73744846</v>
+      </c>
+      <c r="K32" t="s">
+        <v>181</v>
+      </c>
+      <c r="L32">
+        <v>186827926</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F33" t="e">
+        <f>VLOOKUP(J33,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>26874738;73742054;Limoeiro.do.Norte;186827826</v>
+      </c>
+      <c r="H33" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33">
+        <v>26874738</v>
+      </c>
+      <c r="J33">
+        <v>73742054</v>
+      </c>
+      <c r="K33" t="s">
+        <v>181</v>
+      </c>
+      <c r="L33">
+        <v>186827826</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F34" t="e">
+        <f>VLOOKUP(J34,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>26879410;73744832;Limoeiro.do.Norte;186827747</v>
+      </c>
+      <c r="H34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34">
+        <v>26879410</v>
+      </c>
+      <c r="J34">
+        <v>73744832</v>
+      </c>
+      <c r="K34" t="s">
+        <v>181</v>
+      </c>
+      <c r="L34">
+        <v>186827747</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F35" t="e">
+        <f>VLOOKUP(J35,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>26872657;73740414;Limoeiro.do.Norte;186827746</v>
+      </c>
+      <c r="H35" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35">
+        <v>26872657</v>
+      </c>
+      <c r="J35">
+        <v>73740414</v>
+      </c>
+      <c r="K35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L35">
+        <v>186827746</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F36" t="e">
+        <f>VLOOKUP(J36,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="3"/>
+        <v>26872660;73740442;Limoeiro.do.Norte;186827521</v>
+      </c>
+      <c r="H36" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36">
+        <v>26872660</v>
+      </c>
+      <c r="J36">
+        <v>73740442</v>
+      </c>
+      <c r="K36" t="s">
+        <v>181</v>
+      </c>
+      <c r="L36">
+        <v>186827521</v>
+      </c>
+    </row>
+    <row r="37" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F37" t="e">
+        <f>VLOOKUP(J37,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="3"/>
+        <v>26846497;73722093;Limoeiro.do.Norte;186721949</v>
+      </c>
+      <c r="H37" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37">
+        <v>26846497</v>
+      </c>
+      <c r="J37">
+        <v>73722093</v>
+      </c>
+      <c r="K37" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37">
+        <v>186721949</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F38" t="e">
+        <f>VLOOKUP(J38,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="3"/>
+        <v>26853001;73727018;Limoeiro.do.Norte;186721863</v>
+      </c>
+      <c r="H38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38">
+        <v>26853001</v>
+      </c>
+      <c r="J38">
+        <v>73727018</v>
+      </c>
+      <c r="K38" t="s">
+        <v>181</v>
+      </c>
+      <c r="L38">
+        <v>186721863</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F39" t="e">
+        <f>VLOOKUP(J39,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="3"/>
+        <v>26860855;73730440;Limoeiro.do.Norte;186721577</v>
+      </c>
+      <c r="H39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39">
+        <v>26860855</v>
+      </c>
+      <c r="J39">
+        <v>73730440</v>
+      </c>
+      <c r="K39" t="s">
+        <v>181</v>
+      </c>
+      <c r="L39">
+        <v>186721577</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F40" t="e">
+        <f>VLOOKUP(J40,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="3"/>
+        <v>26805464;73697796;Limoeiro.do.Norte;186721575</v>
+      </c>
+      <c r="H40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40">
+        <v>26805464</v>
+      </c>
+      <c r="J40">
+        <v>73697796</v>
+      </c>
+      <c r="K40" t="s">
+        <v>181</v>
+      </c>
+      <c r="L40">
+        <v>186721575</v>
+      </c>
+    </row>
+    <row r="41" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F41" t="e">
+        <f>VLOOKUP(J41,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="3"/>
+        <v>26820504;73709714;Limoeiro.do.Norte;186721571</v>
+      </c>
+      <c r="H41" t="s">
+        <v>173</v>
+      </c>
+      <c r="I41">
+        <v>26820504</v>
+      </c>
+      <c r="J41">
+        <v>73709714</v>
+      </c>
+      <c r="K41" t="s">
+        <v>181</v>
+      </c>
+      <c r="L41">
+        <v>186721571</v>
+      </c>
+    </row>
+    <row r="42" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F42" t="e">
+        <f>VLOOKUP(J42,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="3"/>
+        <v>26849198;73725408;Limoeiro.do.Norte;186721348</v>
+      </c>
+      <c r="H42" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42">
+        <v>26849198</v>
+      </c>
+      <c r="J42">
+        <v>73725408</v>
+      </c>
+      <c r="K42" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42">
+        <v>186721348</v>
+      </c>
+    </row>
+    <row r="43" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F43" t="e">
+        <f>VLOOKUP(J43,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="3"/>
+        <v>26846167;73721934;Limoeiro.do.Norte;186721347</v>
+      </c>
+      <c r="H43" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43">
+        <v>26846167</v>
+      </c>
+      <c r="J43">
+        <v>73721934</v>
+      </c>
+      <c r="K43" t="s">
+        <v>181</v>
+      </c>
+      <c r="L43">
+        <v>186721347</v>
+      </c>
+    </row>
+    <row r="44" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F44" t="e">
+        <f>VLOOKUP(J44,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="3"/>
+        <v>26844456;73720264;Limoeiro.do.Norte;186721346</v>
+      </c>
+      <c r="H44" t="s">
+        <v>173</v>
+      </c>
+      <c r="I44">
+        <v>26844456</v>
+      </c>
+      <c r="J44">
+        <v>73720264</v>
+      </c>
+      <c r="K44" t="s">
+        <v>181</v>
+      </c>
+      <c r="L44">
+        <v>186721346</v>
+      </c>
+    </row>
+    <row r="45" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F45" t="e">
+        <f>VLOOKUP(J45,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="3"/>
+        <v>26468959;59449538;Limoeiro.do.Norte;186568888</v>
+      </c>
+      <c r="H45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45">
+        <v>26468959</v>
+      </c>
+      <c r="J45">
+        <v>59449538</v>
+      </c>
+      <c r="K45" t="s">
+        <v>181</v>
+      </c>
+      <c r="L45">
+        <v>186568888</v>
+      </c>
+    </row>
+    <row r="46" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F46" t="e">
+        <f>VLOOKUP(J46,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="3"/>
+        <v>26804854;73697092;Limoeiro.do.Norte;186460565</v>
+      </c>
+      <c r="H46" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46">
+        <v>26804854</v>
+      </c>
+      <c r="J46">
+        <v>73697092</v>
+      </c>
+      <c r="K46" t="s">
+        <v>181</v>
+      </c>
+      <c r="L46">
+        <v>186460565</v>
+      </c>
+    </row>
+    <row r="47" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F47" t="e">
+        <f>VLOOKUP(J47,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="3"/>
+        <v>26807984;73698785;Limoeiro.do.Norte;186460408</v>
+      </c>
+      <c r="H47" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47">
+        <v>26807984</v>
+      </c>
+      <c r="J47">
+        <v>73698785</v>
+      </c>
+      <c r="K47" t="s">
+        <v>181</v>
+      </c>
+      <c r="L47">
+        <v>186460408</v>
+      </c>
+    </row>
+    <row r="48" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F48" t="e">
+        <f>VLOOKUP(J48,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="3"/>
+        <v>26803290;73695171;Limoeiro.do.Norte;186460407</v>
+      </c>
+      <c r="H48" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48">
+        <v>26803290</v>
+      </c>
+      <c r="J48">
+        <v>73695171</v>
+      </c>
+      <c r="K48" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48">
+        <v>186460407</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F49" t="e">
+        <f>VLOOKUP(J49,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="3"/>
+        <v>26804527;73696737;Limoeiro.do.Norte;186460400</v>
+      </c>
+      <c r="H49" t="s">
+        <v>173</v>
+      </c>
+      <c r="I49">
+        <v>26804527</v>
+      </c>
+      <c r="J49">
+        <v>73696737</v>
+      </c>
+      <c r="K49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L49">
+        <v>186460400</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F50" t="e">
+        <f>VLOOKUP(J50,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="3"/>
+        <v>26797650;73688559;Limoeiro.do.Norte;186460294</v>
+      </c>
+      <c r="H50" t="s">
+        <v>173</v>
+      </c>
+      <c r="I50">
+        <v>26797650</v>
+      </c>
+      <c r="J50">
+        <v>73688559</v>
+      </c>
+      <c r="K50" t="s">
+        <v>181</v>
+      </c>
+      <c r="L50">
+        <v>186460294</v>
+      </c>
+    </row>
+    <row r="51" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F51" t="e">
+        <f>VLOOKUP(J51,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="3"/>
+        <v>26803300;73695409;Limoeiro.do.Norte;186460283</v>
+      </c>
+      <c r="H51" t="s">
+        <v>173</v>
+      </c>
+      <c r="I51">
+        <v>26803300</v>
+      </c>
+      <c r="J51">
+        <v>73695409</v>
+      </c>
+      <c r="K51" t="s">
+        <v>181</v>
+      </c>
+      <c r="L51">
+        <v>186460283</v>
+      </c>
+    </row>
+    <row r="52" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F52" t="e">
+        <f>VLOOKUP(J52,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="3"/>
+        <v>26799583;73689626;Limoeiro.do.Norte;186460282</v>
+      </c>
+      <c r="H52" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52">
+        <v>26799583</v>
+      </c>
+      <c r="J52">
+        <v>73689626</v>
+      </c>
+      <c r="K52" t="s">
+        <v>181</v>
+      </c>
+      <c r="L52">
+        <v>186460282</v>
+      </c>
+    </row>
+    <row r="53" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F53" t="e">
+        <f>VLOOKUP(J53,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="3"/>
+        <v>26792628;73582256;Limoeiro.do.Norte;186460277</v>
+      </c>
+      <c r="H53" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53">
+        <v>26792628</v>
+      </c>
+      <c r="J53">
+        <v>73582256</v>
+      </c>
+      <c r="K53" t="s">
+        <v>181</v>
+      </c>
+      <c r="L53">
+        <v>186460277</v>
+      </c>
+    </row>
+    <row r="54" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F54" t="e">
+        <f>VLOOKUP(J54,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="3"/>
+        <v>26762554;73661819;Limoeiro.do.Norte;186329453</v>
+      </c>
+      <c r="H54" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54">
+        <v>26762554</v>
+      </c>
+      <c r="J54">
+        <v>73661819</v>
+      </c>
+      <c r="K54" t="s">
+        <v>181</v>
+      </c>
+      <c r="L54">
+        <v>186329453</v>
+      </c>
+    </row>
+    <row r="55" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F55" t="e">
+        <f>VLOOKUP(J55,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="3"/>
+        <v>26751725;73653551;Limoeiro.do.Norte;186329406</v>
+      </c>
+      <c r="H55" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55">
+        <v>26751725</v>
+      </c>
+      <c r="J55">
+        <v>73653551</v>
+      </c>
+      <c r="K55" t="s">
+        <v>181</v>
+      </c>
+      <c r="L55">
+        <v>186329406</v>
+      </c>
+    </row>
+    <row r="56" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F56" t="e">
+        <f>VLOOKUP(J56,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="3"/>
+        <v>26800594;73690473;Limoeiro.do.Norte;186329388</v>
+      </c>
+      <c r="H56" t="s">
+        <v>173</v>
+      </c>
+      <c r="I56">
+        <v>26800594</v>
+      </c>
+      <c r="J56">
+        <v>73690473</v>
+      </c>
+      <c r="K56" t="s">
+        <v>181</v>
+      </c>
+      <c r="L56">
+        <v>186329388</v>
+      </c>
+    </row>
+    <row r="57" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F57" t="e">
+        <f>VLOOKUP(J57,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="3"/>
+        <v>26792310;73683269;Limoeiro.do.Norte;186329387</v>
+      </c>
+      <c r="H57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I57">
+        <v>26792310</v>
+      </c>
+      <c r="J57">
+        <v>73683269</v>
+      </c>
+      <c r="K57" t="s">
+        <v>181</v>
+      </c>
+      <c r="L57">
+        <v>186329387</v>
+      </c>
+    </row>
+    <row r="58" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F58" t="e">
+        <f>VLOOKUP(J58,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="3"/>
+        <v>26800593;73690161;Limoeiro.do.Norte;186329275</v>
+      </c>
+      <c r="H58" t="s">
+        <v>173</v>
+      </c>
+      <c r="I58">
+        <v>26800593</v>
+      </c>
+      <c r="J58">
+        <v>73690161</v>
+      </c>
+      <c r="K58" t="s">
+        <v>181</v>
+      </c>
+      <c r="L58">
+        <v>186329275</v>
+      </c>
+    </row>
+    <row r="59" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F59" t="e">
+        <f>VLOOKUP(J59,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="3"/>
+        <v>26757078;73655997;Limoeiro.do.Norte;186329069</v>
+      </c>
+      <c r="H59" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59">
+        <v>26757078</v>
+      </c>
+      <c r="J59">
+        <v>73655997</v>
+      </c>
+      <c r="K59" t="s">
+        <v>181</v>
+      </c>
+      <c r="L59">
+        <v>186329069</v>
+      </c>
+    </row>
+    <row r="60" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F60" t="e">
+        <f>VLOOKUP(J60,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="3"/>
+        <v>26775240;73672663;Limoeiro.do.Norte;186213164</v>
+      </c>
+      <c r="H60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I60">
+        <v>26775240</v>
+      </c>
+      <c r="J60">
+        <v>73672663</v>
+      </c>
+      <c r="K60" t="s">
+        <v>181</v>
+      </c>
+      <c r="L60">
+        <v>186213164</v>
+      </c>
+    </row>
+    <row r="61" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F61" t="e">
+        <f>VLOOKUP(J61,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="3"/>
+        <v>26979369;73805613;Morada.Nova;187433432</v>
+      </c>
+      <c r="H61" t="s">
+        <v>173</v>
+      </c>
+      <c r="I61">
+        <v>26979369</v>
+      </c>
+      <c r="J61">
+        <v>73805613</v>
+      </c>
+      <c r="K61" t="s">
+        <v>182</v>
+      </c>
+      <c r="L61">
+        <v>187433432</v>
+      </c>
+    </row>
+    <row r="62" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F62" t="e">
+        <f>VLOOKUP(J62,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="3"/>
+        <v>26984389;73810799;Morada.Nova;187433330</v>
+      </c>
+      <c r="H62" t="s">
+        <v>173</v>
+      </c>
+      <c r="I62">
+        <v>26984389</v>
+      </c>
+      <c r="J62">
+        <v>73810799</v>
+      </c>
+      <c r="K62" t="s">
+        <v>182</v>
+      </c>
+      <c r="L62">
+        <v>187433330</v>
+      </c>
+    </row>
+    <row r="63" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F63" t="e">
+        <f>VLOOKUP(J63,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="3"/>
+        <v>26982586;73809389;Morada.Nova;187433329</v>
+      </c>
+      <c r="H63" t="s">
+        <v>173</v>
+      </c>
+      <c r="I63">
+        <v>26982586</v>
+      </c>
+      <c r="J63">
+        <v>73809389</v>
+      </c>
+      <c r="K63" t="s">
+        <v>182</v>
+      </c>
+      <c r="L63">
+        <v>187433329</v>
+      </c>
+    </row>
+    <row r="64" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F64" t="e">
+        <f>VLOOKUP(J64,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="3"/>
+        <v>26986734;73811997;Morada.Nova;187433151</v>
+      </c>
+      <c r="H64" t="s">
+        <v>173</v>
+      </c>
+      <c r="I64">
+        <v>26986734</v>
+      </c>
+      <c r="J64">
+        <v>73811997</v>
+      </c>
+      <c r="K64" t="s">
+        <v>182</v>
+      </c>
+      <c r="L64">
+        <v>187433151</v>
+      </c>
+    </row>
+    <row r="65" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F65" t="e">
+        <f>VLOOKUP(J65,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="3"/>
+        <v>26977046;73803532;Morada.Nova;187433150</v>
+      </c>
+      <c r="H65" t="s">
+        <v>173</v>
+      </c>
+      <c r="I65">
+        <v>26977046</v>
+      </c>
+      <c r="J65">
+        <v>73803532</v>
+      </c>
+      <c r="K65" t="s">
+        <v>182</v>
+      </c>
+      <c r="L65">
+        <v>187433150</v>
+      </c>
+    </row>
+    <row r="66" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F66" t="e">
+        <f>VLOOKUP(J66,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="3"/>
+        <v>26983242;73809938;Morada.Nova;187432909</v>
+      </c>
+      <c r="H66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I66">
+        <v>26983242</v>
+      </c>
+      <c r="J66">
+        <v>73809938</v>
+      </c>
+      <c r="K66" t="s">
+        <v>182</v>
+      </c>
+      <c r="L66">
+        <v>187432909</v>
+      </c>
+    </row>
+    <row r="67" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F67" t="e">
+        <f>VLOOKUP(J67,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="3"/>
+        <v>26980522;73807121;Morada.Nova;187432906</v>
+      </c>
+      <c r="H67" t="s">
+        <v>173</v>
+      </c>
+      <c r="I67">
+        <v>26980522</v>
+      </c>
+      <c r="J67">
+        <v>73807121</v>
+      </c>
+      <c r="K67" t="s">
+        <v>182</v>
+      </c>
+      <c r="L67">
+        <v>187432906</v>
+      </c>
+    </row>
+    <row r="68" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f>VLOOKUP(J68,[1]Sheet!$A:$A,1,0)</f>
+        <v>73767507</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="3"/>
+        <v>26924492;73767507;Morada.Nova;187432870</v>
+      </c>
+      <c r="H68" t="s">
+        <v>173</v>
+      </c>
+      <c r="I68">
+        <v>26924492</v>
+      </c>
+      <c r="J68">
+        <v>73767507</v>
+      </c>
+      <c r="K68" t="s">
+        <v>182</v>
+      </c>
+      <c r="L68">
+        <v>187432870</v>
+      </c>
+    </row>
+    <row r="69" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F69" t="e">
+        <f>VLOOKUP(J69,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="3"/>
+        <v>26986087;73811629;Morada.Nova;187432865</v>
+      </c>
+      <c r="H69" t="s">
+        <v>173</v>
+      </c>
+      <c r="I69">
+        <v>26986087</v>
+      </c>
+      <c r="J69">
+        <v>73811629</v>
+      </c>
+      <c r="K69" t="s">
+        <v>182</v>
+      </c>
+      <c r="L69">
+        <v>187432865</v>
+      </c>
+    </row>
+    <row r="70" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F70" t="e">
+        <f>VLOOKUP(J70,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="3"/>
+        <v>26886027;73748788;Morada.Nova;187299926</v>
+      </c>
+      <c r="H70" t="s">
+        <v>173</v>
+      </c>
+      <c r="I70">
+        <v>26886027</v>
+      </c>
+      <c r="J70">
+        <v>73748788</v>
+      </c>
+      <c r="K70" t="s">
+        <v>182</v>
+      </c>
+      <c r="L70">
+        <v>187299926</v>
+      </c>
+    </row>
+    <row r="71" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F71" t="e">
+        <f>VLOOKUP(J71,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="3"/>
+        <v>26922509;73765233;Morada.Nova;187204393</v>
+      </c>
+      <c r="H71" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71">
+        <v>26922509</v>
+      </c>
+      <c r="J71">
+        <v>73765233</v>
+      </c>
+      <c r="K71" t="s">
+        <v>182</v>
+      </c>
+      <c r="L71">
+        <v>187204393</v>
+      </c>
+    </row>
+    <row r="72" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F72" t="e">
+        <f>VLOOKUP(J72,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="3"/>
+        <v>26937819;73770443;Morada.Nova;187204200</v>
+      </c>
+      <c r="H72" t="s">
+        <v>173</v>
+      </c>
+      <c r="I72">
+        <v>26937819</v>
+      </c>
+      <c r="J72">
+        <v>73770443</v>
+      </c>
+      <c r="K72" t="s">
+        <v>182</v>
+      </c>
+      <c r="L72">
+        <v>187204200</v>
+      </c>
+    </row>
+    <row r="73" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F73" t="e">
+        <f>VLOOKUP(J73,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="3"/>
+        <v>26952010;73781885;Morada.Nova;187204069</v>
+      </c>
+      <c r="H73" t="s">
+        <v>173</v>
+      </c>
+      <c r="I73">
+        <v>26952010</v>
+      </c>
+      <c r="J73">
+        <v>73781885</v>
+      </c>
+      <c r="K73" t="s">
+        <v>182</v>
+      </c>
+      <c r="L73">
+        <v>187204069</v>
+      </c>
+    </row>
+    <row r="74" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F74" t="e">
+        <f>VLOOKUP(J74,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="3"/>
+        <v>26944537;73779089;Morada.Nova;187204066</v>
+      </c>
+      <c r="H74" t="s">
+        <v>173</v>
+      </c>
+      <c r="I74">
+        <v>26944537</v>
+      </c>
+      <c r="J74">
+        <v>73779089</v>
+      </c>
+      <c r="K74" t="s">
+        <v>182</v>
+      </c>
+      <c r="L74">
+        <v>187204066</v>
+      </c>
+    </row>
+    <row r="75" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F75" t="e">
+        <f>VLOOKUP(J75,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="3"/>
+        <v>26939839;73774899;Morada.Nova;187204065</v>
+      </c>
+      <c r="H75" t="s">
+        <v>173</v>
+      </c>
+      <c r="I75">
+        <v>26939839</v>
+      </c>
+      <c r="J75">
+        <v>73774899</v>
+      </c>
+      <c r="K75" t="s">
+        <v>182</v>
+      </c>
+      <c r="L75">
+        <v>187204065</v>
+      </c>
+    </row>
+    <row r="76" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F76" t="e">
+        <f>VLOOKUP(J76,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="3"/>
+        <v>26937705;73775405;Morada.Nova;187204024</v>
+      </c>
+      <c r="H76" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76">
+        <v>26937705</v>
+      </c>
+      <c r="J76">
+        <v>73775405</v>
+      </c>
+      <c r="K76" t="s">
+        <v>182</v>
+      </c>
+      <c r="L76">
+        <v>187204024</v>
+      </c>
+    </row>
+    <row r="77" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F77" t="e">
+        <f>VLOOKUP(J77,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="3"/>
+        <v>26941724;73777068;Morada.Nova;187204014</v>
+      </c>
+      <c r="H77" t="s">
+        <v>173</v>
+      </c>
+      <c r="I77">
+        <v>26941724</v>
+      </c>
+      <c r="J77">
+        <v>73777068</v>
+      </c>
+      <c r="K77" t="s">
+        <v>182</v>
+      </c>
+      <c r="L77">
+        <v>187204014</v>
+      </c>
+    </row>
+    <row r="78" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F78" t="e">
+        <f>VLOOKUP(J78,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="3"/>
+        <v>26946308;73779309;Morada.Nova;187203977</v>
+      </c>
+      <c r="H78" t="s">
+        <v>173</v>
+      </c>
+      <c r="I78">
+        <v>26946308</v>
+      </c>
+      <c r="J78">
+        <v>73779309</v>
+      </c>
+      <c r="K78" t="s">
+        <v>182</v>
+      </c>
+      <c r="L78">
+        <v>187203977</v>
+      </c>
+    </row>
+    <row r="79" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F79" t="e">
+        <f>VLOOKUP(J79,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="3"/>
+        <v>26911015;73761722;Morada.Nova;187092362</v>
+      </c>
+      <c r="H79" t="s">
+        <v>173</v>
+      </c>
+      <c r="I79">
+        <v>26911015</v>
+      </c>
+      <c r="J79">
+        <v>73761722</v>
+      </c>
+      <c r="K79" t="s">
+        <v>182</v>
+      </c>
+      <c r="L79">
+        <v>187092362</v>
+      </c>
+    </row>
+    <row r="80" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F80" t="e">
+        <f>VLOOKUP(J80,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="3"/>
+        <v>26917993;73763741;Morada.Nova;187092192</v>
+      </c>
+      <c r="H80" t="s">
+        <v>173</v>
+      </c>
+      <c r="I80">
+        <v>26917993</v>
+      </c>
+      <c r="J80">
+        <v>73763741</v>
+      </c>
+      <c r="K80" t="s">
+        <v>182</v>
+      </c>
+      <c r="L80">
+        <v>187092192</v>
+      </c>
+    </row>
+    <row r="81" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F81" t="e">
+        <f>VLOOKUP(J81,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="3"/>
+        <v>26909186;73760950;Morada.Nova;187092158</v>
+      </c>
+      <c r="H81" t="s">
+        <v>173</v>
+      </c>
+      <c r="I81">
+        <v>26909186</v>
+      </c>
+      <c r="J81">
+        <v>73760950</v>
+      </c>
+      <c r="K81" t="s">
+        <v>182</v>
+      </c>
+      <c r="L81">
+        <v>187092158</v>
+      </c>
+    </row>
+    <row r="82" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F82" t="e">
+        <f>VLOOKUP(J82,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" ref="G82:G121" si="4">_xlfn.CONCAT(I82,H82,J82,H82,K82,H82,L82)</f>
+        <v>26897698;73755447;Morada.Nova;187092157</v>
+      </c>
+      <c r="H82" t="s">
+        <v>173</v>
+      </c>
+      <c r="I82">
+        <v>26897698</v>
+      </c>
+      <c r="J82">
+        <v>73755447</v>
+      </c>
+      <c r="K82" t="s">
+        <v>182</v>
+      </c>
+      <c r="L82">
+        <v>187092157</v>
+      </c>
+    </row>
+    <row r="83" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F83" t="e">
+        <f>VLOOKUP(J83,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="4"/>
+        <v>26868843;73736509;Morada.Nova;187092154</v>
+      </c>
+      <c r="H83" t="s">
+        <v>173</v>
+      </c>
+      <c r="I83">
+        <v>26868843</v>
+      </c>
+      <c r="J83">
+        <v>73736509</v>
+      </c>
+      <c r="K83" t="s">
+        <v>182</v>
+      </c>
+      <c r="L83">
+        <v>187092154</v>
+      </c>
+    </row>
+    <row r="84" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F84" t="e">
+        <f>VLOOKUP(J84,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="4"/>
+        <v>26862871;73733721;Morada.Nova;187092153</v>
+      </c>
+      <c r="H84" t="s">
+        <v>173</v>
+      </c>
+      <c r="I84">
+        <v>26862871</v>
+      </c>
+      <c r="J84">
+        <v>73733721</v>
+      </c>
+      <c r="K84" t="s">
+        <v>182</v>
+      </c>
+      <c r="L84">
+        <v>187092153</v>
+      </c>
+    </row>
+    <row r="85" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F85" t="e">
+        <f>VLOOKUP(J85,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="4"/>
+        <v>26916996;73763674;Morada.Nova;187092070</v>
+      </c>
+      <c r="H85" t="s">
+        <v>173</v>
+      </c>
+      <c r="I85">
+        <v>26916996</v>
+      </c>
+      <c r="J85">
+        <v>73763674</v>
+      </c>
+      <c r="K85" t="s">
+        <v>182</v>
+      </c>
+      <c r="L85">
+        <v>187092070</v>
+      </c>
+    </row>
+    <row r="86" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F86" t="e">
+        <f>VLOOKUP(J86,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="4"/>
+        <v>26920066;73764482;Morada.Nova;187091945</v>
+      </c>
+      <c r="H86" t="s">
+        <v>173</v>
+      </c>
+      <c r="I86">
+        <v>26920066</v>
+      </c>
+      <c r="J86">
+        <v>73764482</v>
+      </c>
+      <c r="K86" t="s">
+        <v>182</v>
+      </c>
+      <c r="L86">
+        <v>187091945</v>
+      </c>
+    </row>
+    <row r="87" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F87" t="e">
+        <f>VLOOKUP(J87,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="4"/>
+        <v>26923011;73766144;Morada.Nova;187091911</v>
+      </c>
+      <c r="H87" t="s">
+        <v>173</v>
+      </c>
+      <c r="I87">
+        <v>26923011</v>
+      </c>
+      <c r="J87">
+        <v>73766144</v>
+      </c>
+      <c r="K87" t="s">
+        <v>182</v>
+      </c>
+      <c r="L87">
+        <v>187091911</v>
+      </c>
+    </row>
+    <row r="88" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F88" t="e">
+        <f>VLOOKUP(J88,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="4"/>
+        <v>26894828;73753737;Morada.Nova;187091858</v>
+      </c>
+      <c r="H88" t="s">
+        <v>173</v>
+      </c>
+      <c r="I88">
+        <v>26894828</v>
+      </c>
+      <c r="J88">
+        <v>73753737</v>
+      </c>
+      <c r="K88" t="s">
+        <v>182</v>
+      </c>
+      <c r="L88">
+        <v>187091858</v>
+      </c>
+    </row>
+    <row r="89" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F89" t="e">
+        <f>VLOOKUP(J89,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="4"/>
+        <v>26903736;73757534;Morada.Nova;187091851</v>
+      </c>
+      <c r="H89" t="s">
+        <v>173</v>
+      </c>
+      <c r="I89">
+        <v>26903736</v>
+      </c>
+      <c r="J89">
+        <v>73757534</v>
+      </c>
+      <c r="K89" t="s">
+        <v>182</v>
+      </c>
+      <c r="L89">
+        <v>187091851</v>
+      </c>
+    </row>
+    <row r="90" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F90" t="e">
+        <f>VLOOKUP(J90,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="4"/>
+        <v>26907406;73759517;Morada.Nova;186955343</v>
+      </c>
+      <c r="H90" t="s">
+        <v>173</v>
+      </c>
+      <c r="I90">
+        <v>26907406</v>
+      </c>
+      <c r="J90">
+        <v>73759517</v>
+      </c>
+      <c r="K90" t="s">
+        <v>182</v>
+      </c>
+      <c r="L90">
+        <v>186955343</v>
+      </c>
+    </row>
+    <row r="91" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F91" t="e">
+        <f>VLOOKUP(J91,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="4"/>
+        <v>26892468;73750734;Morada.Nova;186955240</v>
+      </c>
+      <c r="H91" t="s">
+        <v>173</v>
+      </c>
+      <c r="I91">
+        <v>26892468</v>
+      </c>
+      <c r="J91">
+        <v>73750734</v>
+      </c>
+      <c r="K91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L91">
+        <v>186955240</v>
+      </c>
+    </row>
+    <row r="92" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F92" t="e">
+        <f>VLOOKUP(J92,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="4"/>
+        <v>26895695;73754680;Morada.Nova;186954931</v>
+      </c>
+      <c r="H92" t="s">
+        <v>173</v>
+      </c>
+      <c r="I92">
+        <v>26895695</v>
+      </c>
+      <c r="J92">
+        <v>73754680</v>
+      </c>
+      <c r="K92" t="s">
+        <v>182</v>
+      </c>
+      <c r="L92">
+        <v>186954931</v>
+      </c>
+    </row>
+    <row r="93" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F93" t="e">
+        <f>VLOOKUP(J93,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="4"/>
+        <v>26872572;73740405;Morada.Nova;186954926</v>
+      </c>
+      <c r="H93" t="s">
+        <v>173</v>
+      </c>
+      <c r="I93">
+        <v>26872572</v>
+      </c>
+      <c r="J93">
+        <v>73740405</v>
+      </c>
+      <c r="K93" t="s">
+        <v>182</v>
+      </c>
+      <c r="L93">
+        <v>186954926</v>
+      </c>
+    </row>
+    <row r="94" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F94" t="e">
+        <f>VLOOKUP(J94,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="4"/>
+        <v>26852915;73727453;Morada.Nova;186954891</v>
+      </c>
+      <c r="H94" t="s">
+        <v>173</v>
+      </c>
+      <c r="I94">
+        <v>26852915</v>
+      </c>
+      <c r="J94">
+        <v>73727453</v>
+      </c>
+      <c r="K94" t="s">
+        <v>182</v>
+      </c>
+      <c r="L94">
+        <v>186954891</v>
+      </c>
+    </row>
+    <row r="95" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F95" t="e">
+        <f>VLOOKUP(J95,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="4"/>
+        <v>26846582;73722477;Morada.Nova;186954881</v>
+      </c>
+      <c r="H95" t="s">
+        <v>173</v>
+      </c>
+      <c r="I95">
+        <v>26846582</v>
+      </c>
+      <c r="J95">
+        <v>73722477</v>
+      </c>
+      <c r="K95" t="s">
+        <v>182</v>
+      </c>
+      <c r="L95">
+        <v>186954881</v>
+      </c>
+    </row>
+    <row r="96" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F96" t="e">
+        <f>VLOOKUP(J96,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="4"/>
+        <v>26893225;73751661;Morada.Nova;186954837</v>
+      </c>
+      <c r="H96" t="s">
+        <v>173</v>
+      </c>
+      <c r="I96">
+        <v>26893225</v>
+      </c>
+      <c r="J96">
+        <v>73751661</v>
+      </c>
+      <c r="K96" t="s">
+        <v>182</v>
+      </c>
+      <c r="L96">
+        <v>186954837</v>
+      </c>
+    </row>
+    <row r="97" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F97" t="e">
+        <f>VLOOKUP(J97,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="4"/>
+        <v>26874811;73742062;Morada.Nova;186827660</v>
+      </c>
+      <c r="H97" t="s">
+        <v>173</v>
+      </c>
+      <c r="I97">
+        <v>26874811</v>
+      </c>
+      <c r="J97">
+        <v>73742062</v>
+      </c>
+      <c r="K97" t="s">
+        <v>182</v>
+      </c>
+      <c r="L97">
+        <v>186827660</v>
+      </c>
+    </row>
+    <row r="98" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F98" t="e">
+        <f>VLOOKUP(J98,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="4"/>
+        <v>26871378;73738845;Morada.Nova;186827532</v>
+      </c>
+      <c r="H98" t="s">
+        <v>173</v>
+      </c>
+      <c r="I98">
+        <v>26871378</v>
+      </c>
+      <c r="J98">
+        <v>73738845</v>
+      </c>
+      <c r="K98" t="s">
+        <v>182</v>
+      </c>
+      <c r="L98">
+        <v>186827532</v>
+      </c>
+    </row>
+    <row r="99" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F99" t="e">
+        <f>VLOOKUP(J99,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="4"/>
+        <v>26869216;73736636;Morada.Nova;186827530</v>
+      </c>
+      <c r="H99" t="s">
+        <v>173</v>
+      </c>
+      <c r="I99">
+        <v>26869216</v>
+      </c>
+      <c r="J99">
+        <v>73736636</v>
+      </c>
+      <c r="K99" t="s">
+        <v>182</v>
+      </c>
+      <c r="L99">
+        <v>186827530</v>
+      </c>
+    </row>
+    <row r="100" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F100" t="e">
+        <f>VLOOKUP(J100,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="4"/>
+        <v>26874618;73742015;Morada.Nova;186827480</v>
+      </c>
+      <c r="H100" t="s">
+        <v>173</v>
+      </c>
+      <c r="I100">
+        <v>26874618</v>
+      </c>
+      <c r="J100">
+        <v>73742015</v>
+      </c>
+      <c r="K100" t="s">
+        <v>182</v>
+      </c>
+      <c r="L100">
+        <v>186827480</v>
+      </c>
+    </row>
+    <row r="101" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F101" t="e">
+        <f>VLOOKUP(J101,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="4"/>
+        <v>26816750;73702927;Morada.Nova;186721657</v>
+      </c>
+      <c r="H101" t="s">
+        <v>173</v>
+      </c>
+      <c r="I101">
+        <v>26816750</v>
+      </c>
+      <c r="J101">
+        <v>73702927</v>
+      </c>
+      <c r="K101" t="s">
+        <v>182</v>
+      </c>
+      <c r="L101">
+        <v>186721657</v>
+      </c>
+    </row>
+    <row r="102" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F102" t="e">
+        <f>VLOOKUP(J102,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="4"/>
+        <v>26758318;34081905;Morada.Nova;186721497</v>
+      </c>
+      <c r="H102" t="s">
+        <v>173</v>
+      </c>
+      <c r="I102">
+        <v>26758318</v>
+      </c>
+      <c r="J102">
+        <v>34081905</v>
+      </c>
+      <c r="K102" t="s">
+        <v>182</v>
+      </c>
+      <c r="L102">
+        <v>186721497</v>
+      </c>
+    </row>
+    <row r="103" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F103" t="e">
+        <f>VLOOKUP(J103,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="4"/>
+        <v>26850393;73726016;Morada.Nova;186721405</v>
+      </c>
+      <c r="H103" t="s">
+        <v>173</v>
+      </c>
+      <c r="I103">
+        <v>26850393</v>
+      </c>
+      <c r="J103">
+        <v>73726016</v>
+      </c>
+      <c r="K103" t="s">
+        <v>182</v>
+      </c>
+      <c r="L103">
+        <v>186721405</v>
+      </c>
+    </row>
+    <row r="104" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F104" t="e">
+        <f>VLOOKUP(J104,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="4"/>
+        <v>26848669;73724597;Morada.Nova;186721404</v>
+      </c>
+      <c r="H104" t="s">
+        <v>173</v>
+      </c>
+      <c r="I104">
+        <v>26848669</v>
+      </c>
+      <c r="J104">
+        <v>73724597</v>
+      </c>
+      <c r="K104" t="s">
+        <v>182</v>
+      </c>
+      <c r="L104">
+        <v>186721404</v>
+      </c>
+    </row>
+    <row r="105" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F105" t="e">
+        <f>VLOOKUP(J105,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="4"/>
+        <v>26859293;73728504;Morada.Nova;186721387</v>
+      </c>
+      <c r="H105" t="s">
+        <v>173</v>
+      </c>
+      <c r="I105">
+        <v>26859293</v>
+      </c>
+      <c r="J105">
+        <v>73728504</v>
+      </c>
+      <c r="K105" t="s">
+        <v>182</v>
+      </c>
+      <c r="L105">
+        <v>186721387</v>
+      </c>
+    </row>
+    <row r="106" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F106" t="e">
+        <f>VLOOKUP(J106,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="4"/>
+        <v>26853980;73727571;Morada.Nova;186721385</v>
+      </c>
+      <c r="H106" t="s">
+        <v>173</v>
+      </c>
+      <c r="I106">
+        <v>26853980</v>
+      </c>
+      <c r="J106">
+        <v>73727571</v>
+      </c>
+      <c r="K106" t="s">
+        <v>182</v>
+      </c>
+      <c r="L106">
+        <v>186721385</v>
+      </c>
+    </row>
+    <row r="107" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F107" t="e">
+        <f>VLOOKUP(J107,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="4"/>
+        <v>26815864;73701808;Morada.Nova;186460595</v>
+      </c>
+      <c r="H107" t="s">
+        <v>173</v>
+      </c>
+      <c r="I107">
+        <v>26815864</v>
+      </c>
+      <c r="J107">
+        <v>73701808</v>
+      </c>
+      <c r="K107" t="s">
+        <v>182</v>
+      </c>
+      <c r="L107">
+        <v>186460595</v>
+      </c>
+    </row>
+    <row r="108" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F108" t="e">
+        <f>VLOOKUP(J108,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="4"/>
+        <v>26801726;73691699;Morada.Nova;186460436</v>
+      </c>
+      <c r="H108" t="s">
+        <v>173</v>
+      </c>
+      <c r="I108">
+        <v>26801726</v>
+      </c>
+      <c r="J108">
+        <v>73691699</v>
+      </c>
+      <c r="K108" t="s">
+        <v>182</v>
+      </c>
+      <c r="L108">
+        <v>186460436</v>
+      </c>
+    </row>
+    <row r="109" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F109" t="e">
+        <f>VLOOKUP(J109,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="4"/>
+        <v>26760313;73659703;Morada.Nova;186329327</v>
+      </c>
+      <c r="H109" t="s">
+        <v>173</v>
+      </c>
+      <c r="I109">
+        <v>26760313</v>
+      </c>
+      <c r="J109">
+        <v>73659703</v>
+      </c>
+      <c r="K109" t="s">
+        <v>182</v>
+      </c>
+      <c r="L109">
+        <v>186329327</v>
+      </c>
+    </row>
+    <row r="110" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F110" t="e">
+        <f>VLOOKUP(J110,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="4"/>
+        <v>26772334;73669544;Morada.Nova;186329317</v>
+      </c>
+      <c r="H110" t="s">
+        <v>173</v>
+      </c>
+      <c r="I110">
+        <v>26772334</v>
+      </c>
+      <c r="J110">
+        <v>73669544</v>
+      </c>
+      <c r="K110" t="s">
+        <v>182</v>
+      </c>
+      <c r="L110">
+        <v>186329317</v>
+      </c>
+    </row>
+    <row r="111" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F111" t="e">
+        <f>VLOOKUP(J111,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="4"/>
+        <v>26767252;73667447;Morada.Nova;186329314</v>
+      </c>
+      <c r="H111" t="s">
+        <v>173</v>
+      </c>
+      <c r="I111">
+        <v>26767252</v>
+      </c>
+      <c r="J111">
+        <v>73667447</v>
+      </c>
+      <c r="K111" t="s">
+        <v>182</v>
+      </c>
+      <c r="L111">
+        <v>186329314</v>
+      </c>
+    </row>
+    <row r="112" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F112" t="e">
+        <f>VLOOKUP(J112,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="4"/>
+        <v>26788418;73682049;Morada.Nova;186329256</v>
+      </c>
+      <c r="H112" t="s">
+        <v>173</v>
+      </c>
+      <c r="I112">
+        <v>26788418</v>
+      </c>
+      <c r="J112">
+        <v>73682049</v>
+      </c>
+      <c r="K112" t="s">
+        <v>182</v>
+      </c>
+      <c r="L112">
+        <v>186329256</v>
+      </c>
+    </row>
+    <row r="113" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F113" t="e">
+        <f>VLOOKUP(J113,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="4"/>
+        <v>26767253;73667417;Morada.Nova;186329255</v>
+      </c>
+      <c r="H113" t="s">
+        <v>173</v>
+      </c>
+      <c r="I113">
+        <v>26767253</v>
+      </c>
+      <c r="J113">
+        <v>73667417</v>
+      </c>
+      <c r="K113" t="s">
+        <v>182</v>
+      </c>
+      <c r="L113">
+        <v>186329255</v>
+      </c>
+    </row>
+    <row r="114" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F114" t="e">
+        <f>VLOOKUP(J114,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="4"/>
+        <v>26776075;73673898;Morada.Nova;186329175</v>
+      </c>
+      <c r="H114" t="s">
+        <v>173</v>
+      </c>
+      <c r="I114">
+        <v>26776075</v>
+      </c>
+      <c r="J114">
+        <v>73673898</v>
+      </c>
+      <c r="K114" t="s">
+        <v>182</v>
+      </c>
+      <c r="L114">
+        <v>186329175</v>
+      </c>
+    </row>
+    <row r="115" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F115" t="e">
+        <f>VLOOKUP(J115,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="4"/>
+        <v>26795002;73686165;Morada.Nova;186329084</v>
+      </c>
+      <c r="H115" t="s">
+        <v>173</v>
+      </c>
+      <c r="I115">
+        <v>26795002</v>
+      </c>
+      <c r="J115">
+        <v>73686165</v>
+      </c>
+      <c r="K115" t="s">
+        <v>182</v>
+      </c>
+      <c r="L115">
+        <v>186329084</v>
+      </c>
+    </row>
+    <row r="116" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F116" t="e">
+        <f>VLOOKUP(J116,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="4"/>
+        <v>26794285;73685202;Morada.Nova;186329083</v>
+      </c>
+      <c r="H116" t="s">
+        <v>173</v>
+      </c>
+      <c r="I116">
+        <v>26794285</v>
+      </c>
+      <c r="J116">
+        <v>73685202</v>
+      </c>
+      <c r="K116" t="s">
+        <v>182</v>
+      </c>
+      <c r="L116">
+        <v>186329083</v>
+      </c>
+    </row>
+    <row r="117" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F117" t="e">
+        <f>VLOOKUP(J117,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="4"/>
+        <v>26751727;73653762;Morada.Nova;186329082</v>
+      </c>
+      <c r="H117" t="s">
+        <v>173</v>
+      </c>
+      <c r="I117">
+        <v>26751727</v>
+      </c>
+      <c r="J117">
+        <v>73653762</v>
+      </c>
+      <c r="K117" t="s">
+        <v>182</v>
+      </c>
+      <c r="L117">
+        <v>186329082</v>
+      </c>
+    </row>
+    <row r="118" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F118" t="e">
+        <f>VLOOKUP(J118,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="4"/>
+        <v>26797135;73687862;Morada.Nova;186329036</v>
+      </c>
+      <c r="H118" t="s">
+        <v>173</v>
+      </c>
+      <c r="I118">
+        <v>26797135</v>
+      </c>
+      <c r="J118">
+        <v>73687862</v>
+      </c>
+      <c r="K118" t="s">
+        <v>182</v>
+      </c>
+      <c r="L118">
+        <v>186329036</v>
+      </c>
+    </row>
+    <row r="119" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F119" t="e">
+        <f>VLOOKUP(J119,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="4"/>
+        <v>26794456;73685420;Morada.Nova;186328983</v>
+      </c>
+      <c r="H119" t="s">
+        <v>173</v>
+      </c>
+      <c r="I119">
+        <v>26794456</v>
+      </c>
+      <c r="J119">
+        <v>73685420</v>
+      </c>
+      <c r="K119" t="s">
+        <v>182</v>
+      </c>
+      <c r="L119">
+        <v>186328983</v>
+      </c>
+    </row>
+    <row r="120" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F120" t="e">
+        <f>VLOOKUP(J120,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="4"/>
+        <v>26771382;73668488;Morada.Nova;186328979</v>
+      </c>
+      <c r="H120" t="s">
+        <v>173</v>
+      </c>
+      <c r="I120">
+        <v>26771382</v>
+      </c>
+      <c r="J120">
+        <v>73668488</v>
+      </c>
+      <c r="K120" t="s">
+        <v>182</v>
+      </c>
+      <c r="L120">
+        <v>186328979</v>
+      </c>
+    </row>
+    <row r="121" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F121" t="e">
+        <f>VLOOKUP(J121,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="4"/>
+        <v>26775262;73672733;Morada.Nova;186213320</v>
+      </c>
+      <c r="H121" t="s">
+        <v>173</v>
+      </c>
+      <c r="I121">
+        <v>26775262</v>
+      </c>
+      <c r="J121">
+        <v>73672733</v>
+      </c>
+      <c r="K121" t="s">
+        <v>182</v>
+      </c>
+      <c r="L121">
+        <v>186213320</v>
+      </c>
+    </row>
+    <row r="122" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F122" t="e">
+        <f>VLOOKUP(J122,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" ref="G122:G123" si="5">_xlfn.CONCAT(I122,H122,J122,H122,K122,H122,L122)</f>
+        <v>26804836;73697120;SÃO.JOÃO.JAGUARIBE;186460324</v>
+      </c>
+      <c r="H122" t="s">
+        <v>173</v>
+      </c>
+      <c r="I122">
+        <v>26804836</v>
+      </c>
+      <c r="J122">
+        <v>73697120</v>
+      </c>
+      <c r="K122" t="s">
+        <v>183</v>
+      </c>
+      <c r="L122">
+        <v>186460324</v>
+      </c>
+    </row>
+    <row r="123" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F123" t="e">
+        <f>VLOOKUP(J123,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="5"/>
+        <v>26978928;73805231;Tabuleiro.do.Norte;187433083</v>
+      </c>
+      <c r="H123" t="s">
+        <v>173</v>
+      </c>
+      <c r="I123">
+        <v>26978928</v>
+      </c>
+      <c r="J123">
+        <v>73805231</v>
+      </c>
+      <c r="K123" t="s">
+        <v>184</v>
+      </c>
+      <c r="L123">
+        <v>187433083</v>
+      </c>
+    </row>
+    <row r="124" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F124" t="e">
+        <f>VLOOKUP(J124,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" ref="G124:G149" si="6">_xlfn.CONCAT(I124,H124,J124,H124,K124,H124,L124)</f>
+        <v>26978302;73804287;Tabuleiro.do.Norte;187433082</v>
+      </c>
+      <c r="H124" t="s">
+        <v>173</v>
+      </c>
+      <c r="I124">
+        <v>26978302</v>
+      </c>
+      <c r="J124">
+        <v>73804287</v>
+      </c>
+      <c r="K124" t="s">
+        <v>184</v>
+      </c>
+      <c r="L124">
+        <v>187433082</v>
+      </c>
+    </row>
+    <row r="125" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F125" t="e">
+        <f>VLOOKUP(J125,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="6"/>
+        <v>26982590;73809503;Tabuleiro.do.Norte;187432908</v>
+      </c>
+      <c r="H125" t="s">
+        <v>173</v>
+      </c>
+      <c r="I125">
+        <v>26982590</v>
+      </c>
+      <c r="J125">
+        <v>73809503</v>
+      </c>
+      <c r="K125" t="s">
+        <v>184</v>
+      </c>
+      <c r="L125">
+        <v>187432908</v>
+      </c>
+    </row>
+    <row r="126" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F126" t="e">
+        <f>VLOOKUP(J126,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="6"/>
+        <v>26989608;73814513;Tabuleiro.do.Norte;187432889</v>
+      </c>
+      <c r="H126" t="s">
+        <v>173</v>
+      </c>
+      <c r="I126">
+        <v>26989608</v>
+      </c>
+      <c r="J126">
+        <v>73814513</v>
+      </c>
+      <c r="K126" t="s">
+        <v>184</v>
+      </c>
+      <c r="L126">
+        <v>187432889</v>
+      </c>
+    </row>
+    <row r="127" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F127" t="e">
+        <f>VLOOKUP(J127,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="6"/>
+        <v>26939020;73775400;Tabuleiro.do.Norte;187204470</v>
+      </c>
+      <c r="H127" t="s">
+        <v>173</v>
+      </c>
+      <c r="I127">
+        <v>26939020</v>
+      </c>
+      <c r="J127">
+        <v>73775400</v>
+      </c>
+      <c r="K127" t="s">
+        <v>184</v>
+      </c>
+      <c r="L127">
+        <v>187204470</v>
+      </c>
+    </row>
+    <row r="128" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F128" t="e">
+        <f>VLOOKUP(J128,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="6"/>
+        <v>26926472;73768068;Tabuleiro.do.Norte;187091835</v>
+      </c>
+      <c r="H128" t="s">
+        <v>173</v>
+      </c>
+      <c r="I128">
+        <v>26926472</v>
+      </c>
+      <c r="J128">
+        <v>73768068</v>
+      </c>
+      <c r="K128" t="s">
+        <v>184</v>
+      </c>
+      <c r="L128">
+        <v>187091835</v>
+      </c>
+    </row>
+    <row r="129" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F129" t="e">
+        <f>VLOOKUP(J129,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="6"/>
+        <v>26912873;73761906;Tabuleiro.do.Norte;187091834</v>
+      </c>
+      <c r="H129" t="s">
+        <v>173</v>
+      </c>
+      <c r="I129">
+        <v>26912873</v>
+      </c>
+      <c r="J129">
+        <v>73761906</v>
+      </c>
+      <c r="K129" t="s">
+        <v>184</v>
+      </c>
+      <c r="L129">
+        <v>187091834</v>
+      </c>
+    </row>
+    <row r="130" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F130" t="e">
+        <f>VLOOKUP(J130,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="6"/>
+        <v>26872320;73739769;Tabuleiro.do.Norte;186955417</v>
+      </c>
+      <c r="H130" t="s">
+        <v>173</v>
+      </c>
+      <c r="I130">
+        <v>26872320</v>
+      </c>
+      <c r="J130">
+        <v>73739769</v>
+      </c>
+      <c r="K130" t="s">
+        <v>184</v>
+      </c>
+      <c r="L130">
+        <v>186955417</v>
+      </c>
+    </row>
+    <row r="131" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F131" t="e">
+        <f>VLOOKUP(J131,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="6"/>
+        <v>26844683;73720402;Tabuleiro.do.Norte;186955416</v>
+      </c>
+      <c r="H131" t="s">
+        <v>173</v>
+      </c>
+      <c r="I131">
+        <v>26844683</v>
+      </c>
+      <c r="J131">
+        <v>73720402</v>
+      </c>
+      <c r="K131" t="s">
+        <v>184</v>
+      </c>
+      <c r="L131">
+        <v>186955416</v>
+      </c>
+    </row>
+    <row r="132" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F132" t="e">
+        <f>VLOOKUP(J132,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="6"/>
+        <v>26895377;73754401;Tabuleiro.do.Norte;186955246</v>
+      </c>
+      <c r="H132" t="s">
+        <v>173</v>
+      </c>
+      <c r="I132">
+        <v>26895377</v>
+      </c>
+      <c r="J132">
+        <v>73754401</v>
+      </c>
+      <c r="K132" t="s">
+        <v>184</v>
+      </c>
+      <c r="L132">
+        <v>186955246</v>
+      </c>
+    </row>
+    <row r="133" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F133" t="e">
+        <f>VLOOKUP(J133,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="6"/>
+        <v>26900225;73756192;Tabuleiro.do.Norte;186955203</v>
+      </c>
+      <c r="H133" t="s">
+        <v>173</v>
+      </c>
+      <c r="I133">
+        <v>26900225</v>
+      </c>
+      <c r="J133">
+        <v>73756192</v>
+      </c>
+      <c r="K133" t="s">
+        <v>184</v>
+      </c>
+      <c r="L133">
+        <v>186955203</v>
+      </c>
+    </row>
+    <row r="134" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F134" t="e">
+        <f>VLOOKUP(J134,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="6"/>
+        <v>26900646;73756514;Tabuleiro.do.Norte;186955092</v>
+      </c>
+      <c r="H134" t="s">
+        <v>173</v>
+      </c>
+      <c r="I134">
+        <v>26900646</v>
+      </c>
+      <c r="J134">
+        <v>73756514</v>
+      </c>
+      <c r="K134" t="s">
+        <v>184</v>
+      </c>
+      <c r="L134">
+        <v>186955092</v>
+      </c>
+    </row>
+    <row r="135" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F135" t="e">
+        <f>VLOOKUP(J135,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="6"/>
+        <v>26878668;73743980;Tabuleiro.do.Norte;186955082</v>
+      </c>
+      <c r="H135" t="s">
+        <v>173</v>
+      </c>
+      <c r="I135">
+        <v>26878668</v>
+      </c>
+      <c r="J135">
+        <v>73743980</v>
+      </c>
+      <c r="K135" t="s">
+        <v>184</v>
+      </c>
+      <c r="L135">
+        <v>186955082</v>
+      </c>
+    </row>
+    <row r="136" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F136" t="e">
+        <f>VLOOKUP(J136,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="6"/>
+        <v>26889733;73749700;Tabuleiro.do.Norte;186954834</v>
+      </c>
+      <c r="H136" t="s">
+        <v>173</v>
+      </c>
+      <c r="I136">
+        <v>26889733</v>
+      </c>
+      <c r="J136">
+        <v>73749700</v>
+      </c>
+      <c r="K136" t="s">
+        <v>184</v>
+      </c>
+      <c r="L136">
+        <v>186954834</v>
+      </c>
+    </row>
+    <row r="137" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F137" t="e">
+        <f>VLOOKUP(J137,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="6"/>
+        <v>26860937;73730851;Tabuleiro.do.Norte;186827994</v>
+      </c>
+      <c r="H137" t="s">
+        <v>173</v>
+      </c>
+      <c r="I137">
+        <v>26860937</v>
+      </c>
+      <c r="J137">
+        <v>73730851</v>
+      </c>
+      <c r="K137" t="s">
+        <v>184</v>
+      </c>
+      <c r="L137">
+        <v>186827994</v>
+      </c>
+    </row>
+    <row r="138" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F138" t="e">
+        <f>VLOOKUP(J138,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="6"/>
+        <v>26879407;73744814;Tabuleiro.do.Norte;186827457</v>
+      </c>
+      <c r="H138" t="s">
+        <v>173</v>
+      </c>
+      <c r="I138">
+        <v>26879407</v>
+      </c>
+      <c r="J138">
+        <v>73744814</v>
+      </c>
+      <c r="K138" t="s">
+        <v>184</v>
+      </c>
+      <c r="L138">
+        <v>186827457</v>
+      </c>
+    </row>
+    <row r="139" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <f>VLOOKUP(J139,[1]Sheet!$A:$A,1,0)</f>
+        <v>73695909</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="6"/>
+        <v>26803821;73695909;Tabuleiro.do.Norte;186460522</v>
+      </c>
+      <c r="H139" t="s">
+        <v>173</v>
+      </c>
+      <c r="I139">
+        <v>26803821</v>
+      </c>
+      <c r="J139">
+        <v>73695909</v>
+      </c>
+      <c r="K139" t="s">
+        <v>184</v>
+      </c>
+      <c r="L139">
+        <v>186460522</v>
+      </c>
+    </row>
+    <row r="140" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F140" t="e">
+        <f>VLOOKUP(J140,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="6"/>
+        <v>26815257;73701441;Tabuleiro.do.Norte;186460502</v>
+      </c>
+      <c r="H140" t="s">
+        <v>173</v>
+      </c>
+      <c r="I140">
+        <v>26815257</v>
+      </c>
+      <c r="J140">
+        <v>73701441</v>
+      </c>
+      <c r="K140" t="s">
+        <v>184</v>
+      </c>
+      <c r="L140">
+        <v>186460502</v>
+      </c>
+    </row>
+    <row r="141" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F141" t="e">
+        <f>VLOOKUP(J141,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="6"/>
+        <v>26813540;73700761;Tabuleiro.do.Norte;186460501</v>
+      </c>
+      <c r="H141" t="s">
+        <v>173</v>
+      </c>
+      <c r="I141">
+        <v>26813540</v>
+      </c>
+      <c r="J141">
+        <v>73700761</v>
+      </c>
+      <c r="K141" t="s">
+        <v>184</v>
+      </c>
+      <c r="L141">
+        <v>186460501</v>
+      </c>
+    </row>
+    <row r="142" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F142" t="e">
+        <f>VLOOKUP(J142,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="6"/>
+        <v>26804796;73697033;Tabuleiro.do.Norte;186460500</v>
+      </c>
+      <c r="H142" t="s">
+        <v>173</v>
+      </c>
+      <c r="I142">
+        <v>26804796</v>
+      </c>
+      <c r="J142">
+        <v>73697033</v>
+      </c>
+      <c r="K142" t="s">
+        <v>184</v>
+      </c>
+      <c r="L142">
+        <v>186460500</v>
+      </c>
+    </row>
+    <row r="143" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F143" t="e">
+        <f>VLOOKUP(J143,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="6"/>
+        <v>26786712;73681383;Tabuleiro.do.Norte;186329470</v>
+      </c>
+      <c r="H143" t="s">
+        <v>173</v>
+      </c>
+      <c r="I143">
+        <v>26786712</v>
+      </c>
+      <c r="J143">
+        <v>73681383</v>
+      </c>
+      <c r="K143" t="s">
+        <v>184</v>
+      </c>
+      <c r="L143">
+        <v>186329470</v>
+      </c>
+    </row>
+    <row r="144" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F144" t="e">
+        <f>VLOOKUP(J144,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="6"/>
+        <v>26776197;73673931;Tabuleiro.do.Norte;186329468</v>
+      </c>
+      <c r="H144" t="s">
+        <v>173</v>
+      </c>
+      <c r="I144">
+        <v>26776197</v>
+      </c>
+      <c r="J144">
+        <v>73673931</v>
+      </c>
+      <c r="K144" t="s">
+        <v>184</v>
+      </c>
+      <c r="L144">
+        <v>186329468</v>
+      </c>
+    </row>
+    <row r="145" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F145" t="e">
+        <f>VLOOKUP(J145,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="6"/>
+        <v>26795367;73686720;Tabuleiro.do.Norte;186329311</v>
+      </c>
+      <c r="H145" t="s">
+        <v>173</v>
+      </c>
+      <c r="I145">
+        <v>26795367</v>
+      </c>
+      <c r="J145">
+        <v>73686720</v>
+      </c>
+      <c r="K145" t="s">
+        <v>184</v>
+      </c>
+      <c r="L145">
+        <v>186329311</v>
+      </c>
+    </row>
+    <row r="146" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F146" t="e">
+        <f>VLOOKUP(J146,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="6"/>
+        <v>26771168;73668319;Tabuleiro.do.Norte;186329168</v>
+      </c>
+      <c r="H146" t="s">
+        <v>173</v>
+      </c>
+      <c r="I146">
+        <v>26771168</v>
+      </c>
+      <c r="J146">
+        <v>73668319</v>
+      </c>
+      <c r="K146" t="s">
+        <v>184</v>
+      </c>
+      <c r="L146">
+        <v>186329168</v>
+      </c>
+    </row>
+    <row r="147" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F147" t="e">
+        <f>VLOOKUP(J147,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="6"/>
+        <v>26777306;73674308;Tabuleiro.do.Norte;186329033</v>
+      </c>
+      <c r="H147" t="s">
+        <v>173</v>
+      </c>
+      <c r="I147">
+        <v>26777306</v>
+      </c>
+      <c r="J147">
+        <v>73674308</v>
+      </c>
+      <c r="K147" t="s">
+        <v>184</v>
+      </c>
+      <c r="L147">
+        <v>186329033</v>
+      </c>
+    </row>
+    <row r="148" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F148" t="e">
+        <f>VLOOKUP(J148,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="6"/>
+        <v>26776619;73674085;Tabuleiro.do.Norte;186329032</v>
+      </c>
+      <c r="H148" t="s">
+        <v>173</v>
+      </c>
+      <c r="I148">
+        <v>26776619</v>
+      </c>
+      <c r="J148">
+        <v>73674085</v>
+      </c>
+      <c r="K148" t="s">
+        <v>184</v>
+      </c>
+      <c r="L148">
+        <v>186329032</v>
+      </c>
+    </row>
+    <row r="149" spans="6:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F149" t="e">
+        <f>VLOOKUP(J149,[1]Sheet!$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="6"/>
+        <v>26774697;73671682;Tabuleiro.do.Norte;186329031</v>
+      </c>
+      <c r="H149" t="s">
+        <v>173</v>
+      </c>
+      <c r="I149">
+        <v>26774697</v>
+      </c>
+      <c r="J149">
+        <v>73671682</v>
+      </c>
+      <c r="K149" t="s">
+        <v>184</v>
+      </c>
+      <c r="L149">
+        <v>186329031</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:L149" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="73685274"/>
+        <filter val="73695909"/>
+        <filter val="73728526"/>
+        <filter val="73767507"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
